--- a/Gender Inequality Index.xlsx
+++ b/Gender Inequality Index.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="242">
   <si>
     <t>SDG3.1</t>
   </si>
@@ -86,6 +86,9 @@
     <t>Switzerland</t>
   </si>
   <si>
+    <t>Very High Human Development</t>
+  </si>
+  <si>
     <t>Norway</t>
   </si>
   <si>
@@ -287,6 +290,9 @@
     <t>Albania</t>
   </si>
   <si>
+    <t>High Human Development</t>
+  </si>
+  <si>
     <t>Bulgaria</t>
   </si>
   <si>
@@ -434,6 +440,9 @@
     <t>Philippines</t>
   </si>
   <si>
+    <t>Medium Human Development</t>
+  </si>
+  <si>
     <t>Botswana</t>
   </si>
   <si>
@@ -564,6 +573,9 @@
   </si>
   <si>
     <t>Tanzania (United Republic of)</t>
+  </si>
+  <si>
+    <t>Low Human Development</t>
   </si>
   <si>
     <t>Pakistan</t>
@@ -1207,8 +1219,8 @@
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="#,###,##0"/>
-    <numFmt numFmtId="177" formatCode="#,###,##0.0"/>
+    <numFmt numFmtId="176" formatCode="#,###,##0.0"/>
+    <numFmt numFmtId="177" formatCode="#,###,##0"/>
     <numFmt numFmtId="178" formatCode="#,###,##0.000"/>
   </numFmts>
   <fonts count="33">
@@ -1990,7 +2002,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2020,7 +2032,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2357,14 +2369,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:T269"/>
+  <dimension ref="A1:U269"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="7" topLeftCell="J8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="7" topLeftCell="Q8" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="T4" sqref="T4"/>
+      <selection pane="bottomRight" activeCell="W196" sqref="W196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7787610619469" defaultRowHeight="12.75"/>
@@ -2389,7 +2401,8 @@
     <col min="18" max="18" width="2" style="1" customWidth="1"/>
     <col min="19" max="19" width="20" style="1" customWidth="1"/>
     <col min="20" max="20" width="2" style="1" customWidth="1"/>
-    <col min="21" max="16384" width="8.7787610619469" style="1"/>
+    <col min="21" max="21" width="29.6725663716814" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="8.7787610619469" style="1"/>
   </cols>
   <sheetData>
     <row r="1" s="7" customFormat="1" ht="16.05" customHeight="1" spans="1:2">
@@ -2551,7 +2564,7 @@
       </c>
       <c r="T7" s="37"/>
     </row>
-    <row r="8" s="8" customFormat="1" ht="13.5" spans="1:20">
+    <row r="8" s="8" customFormat="1" ht="13.5" spans="1:21">
       <c r="A8" s="23">
         <v>1</v>
       </c>
@@ -2594,13 +2607,16 @@
         <v>72.705</v>
       </c>
       <c r="T8" s="1"/>
-    </row>
-    <row r="9" ht="13.5" spans="1:19">
+      <c r="U8" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" ht="13.5" spans="1:21">
       <c r="A9" s="23">
         <v>2</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" s="25">
         <v>0.016</v>
@@ -2629,13 +2645,16 @@
       <c r="S9" s="33">
         <v>71.95</v>
       </c>
-    </row>
-    <row r="10" ht="13.5" spans="1:19">
+      <c r="U9" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" ht="13.5" spans="1:21">
       <c r="A10" s="23">
         <v>3</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" s="25">
         <v>0.043</v>
@@ -2664,28 +2683,31 @@
       <c r="S10" s="33">
         <v>70.463</v>
       </c>
-    </row>
-    <row r="11" ht="13.5" spans="1:19">
+      <c r="U10" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" ht="13.5" spans="1:21">
       <c r="A11" s="23">
         <v>4</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E11" s="26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G11" s="26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I11" s="33">
         <v>1.584</v>
       </c>
       <c r="K11" s="26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M11" s="33">
         <v>77.10043335</v>
@@ -2699,13 +2721,16 @@
       <c r="S11" s="33">
         <v>65.771</v>
       </c>
-    </row>
-    <row r="12" ht="13.5" spans="1:19">
+      <c r="U11" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" ht="13.5" spans="1:21">
       <c r="A12" s="23">
         <v>5</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C12" s="25">
         <v>0.073</v>
@@ -2734,13 +2759,16 @@
       <c r="S12" s="33">
         <v>70.547</v>
       </c>
-    </row>
-    <row r="13" ht="13.5" spans="1:19">
+      <c r="U12" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" ht="13.5" spans="1:21">
       <c r="A13" s="23">
         <v>6</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C13" s="25">
         <v>0.013</v>
@@ -2769,13 +2797,16 @@
       <c r="S13" s="33">
         <v>66.653</v>
       </c>
-    </row>
-    <row r="14" ht="13.5" spans="1:19">
+      <c r="U13" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" ht="13.5" spans="1:21">
       <c r="A14" s="23">
         <v>7</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C14" s="25">
         <v>0.023</v>
@@ -2804,13 +2835,16 @@
       <c r="S14" s="33">
         <v>68.009</v>
       </c>
-    </row>
-    <row r="15" ht="13.5" spans="1:19">
+      <c r="U14" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" ht="13.5" spans="1:21">
       <c r="A15" s="23">
         <v>8</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C15" s="25">
         <v>0.074</v>
@@ -2841,13 +2875,16 @@
       <c r="S15" s="33">
         <v>68.573</v>
       </c>
-    </row>
-    <row r="16" ht="13.5" spans="1:19">
+      <c r="U15" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" ht="13.5" spans="1:21">
       <c r="A16" s="23">
         <v>9</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C16" s="25">
         <v>0.073</v>
@@ -2878,13 +2915,16 @@
       <c r="S16" s="33">
         <v>66.041</v>
       </c>
-    </row>
-    <row r="17" ht="13.5" spans="1:19">
+      <c r="U16" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" ht="13.5" spans="1:21">
       <c r="A17" s="23">
         <v>10</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C17" s="25">
         <v>0.025</v>
@@ -2913,13 +2953,16 @@
       <c r="S17" s="33">
         <v>71.315</v>
       </c>
-    </row>
-    <row r="18" ht="13.5" spans="1:19">
+      <c r="U17" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" ht="13.5" spans="1:21">
       <c r="A18" s="23">
         <v>11</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C18" s="25">
         <v>0.033</v>
@@ -2948,13 +2991,16 @@
       <c r="S18" s="33">
         <v>64.029</v>
       </c>
-    </row>
-    <row r="19" ht="13.5" spans="1:19">
+      <c r="U18" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" ht="13.5" spans="1:21">
       <c r="A19" s="23">
         <v>12</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C19" s="25">
         <v>0.04</v>
@@ -2983,13 +3029,16 @@
       <c r="S19" s="33">
         <v>76.828</v>
       </c>
-    </row>
-    <row r="20" ht="13.5" spans="1:19">
+      <c r="U19" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" ht="13.5" spans="1:21">
       <c r="A20" s="23">
         <v>13</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20" s="25">
         <v>0.048</v>
@@ -3018,13 +3067,16 @@
       <c r="S20" s="33">
         <v>58.812</v>
       </c>
-    </row>
-    <row r="21" ht="13.5" spans="1:19">
+      <c r="U20" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" ht="13.5" spans="1:21">
       <c r="A21" s="23">
         <v>13</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C21" s="25">
         <v>0.088</v>
@@ -3053,13 +3105,16 @@
       <c r="S21" s="33">
         <v>75.33</v>
       </c>
-    </row>
-    <row r="22" ht="13.5" spans="1:19">
+      <c r="U21" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" ht="13.5" spans="1:21">
       <c r="A22" s="23">
         <v>15</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C22" s="25">
         <v>0.069</v>
@@ -3090,22 +3145,25 @@
       <c r="S22" s="33">
         <v>69.741</v>
       </c>
-    </row>
-    <row r="23" ht="13.5" spans="1:19">
+      <c r="U22" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" ht="13.5" spans="1:21">
       <c r="A23" s="23">
         <v>16</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C23" s="26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E23" s="26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G23" s="26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I23" s="33">
         <v>3.019</v>
@@ -3114,24 +3172,27 @@
         <v>28</v>
       </c>
       <c r="M23" s="26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O23" s="26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q23" s="26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="S23" s="26" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="24" ht="13.5" spans="1:19">
+        <v>26</v>
+      </c>
+      <c r="U23" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" ht="13.5" spans="1:21">
       <c r="A24" s="23">
         <v>17</v>
       </c>
       <c r="B24" s="24" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C24" s="25">
         <v>0.044</v>
@@ -3162,13 +3223,16 @@
       <c r="S24" s="33">
         <v>65.544</v>
       </c>
-    </row>
-    <row r="25" ht="13.5" spans="1:19">
+      <c r="U24" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" ht="13.5" spans="1:21">
       <c r="A25" s="23">
         <v>18</v>
       </c>
       <c r="B25" s="24" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C25" s="25">
         <v>0.098</v>
@@ -3197,13 +3261,16 @@
       <c r="S25" s="33">
         <v>67.091</v>
       </c>
-    </row>
-    <row r="26" ht="13.5" spans="1:19">
+      <c r="U25" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" ht="13.5" spans="1:21">
       <c r="A26" s="23">
         <v>19</v>
       </c>
       <c r="B26" s="24" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C26" s="25">
         <v>0.083</v>
@@ -3232,13 +3299,16 @@
       <c r="S26" s="33">
         <v>71.031</v>
       </c>
-    </row>
-    <row r="27" ht="13.5" spans="1:19">
+      <c r="U26" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" ht="13.5" spans="1:21">
       <c r="A27" s="23">
         <v>19</v>
       </c>
       <c r="B27" s="24" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C27" s="25">
         <v>0.067</v>
@@ -3269,13 +3339,16 @@
       <c r="S27" s="33">
         <v>72.448</v>
       </c>
-    </row>
-    <row r="28" ht="13.5" spans="1:19">
+      <c r="U27" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" ht="13.5" spans="1:21">
       <c r="A28" s="23">
         <v>21</v>
       </c>
       <c r="B28" s="24" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C28" s="25">
         <v>0.179</v>
@@ -3304,13 +3377,16 @@
       <c r="S28" s="33">
         <v>66.437</v>
       </c>
-    </row>
-    <row r="29" ht="13.5" spans="1:19">
+      <c r="U28" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" ht="13.5" spans="1:21">
       <c r="A29" s="23">
         <v>22</v>
       </c>
       <c r="B29" s="24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C29" s="25">
         <v>0.083</v>
@@ -3341,13 +3417,16 @@
       <c r="S29" s="33">
         <v>66.075</v>
       </c>
-    </row>
-    <row r="30" ht="13.5" spans="1:19">
+      <c r="U29" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" ht="13.5" spans="1:21">
       <c r="A30" s="23">
         <v>23</v>
       </c>
       <c r="B30" s="24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C30" s="25">
         <v>0.167</v>
@@ -3376,13 +3455,16 @@
       <c r="S30" s="33">
         <v>71.413</v>
       </c>
-    </row>
-    <row r="31" ht="13.5" spans="1:19">
+      <c r="U30" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" ht="13.5" spans="1:21">
       <c r="A31" s="23">
         <v>23</v>
       </c>
       <c r="B31" s="24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C31" s="25">
         <v>0.071</v>
@@ -3411,13 +3493,16 @@
       <c r="S31" s="33">
         <v>62.188</v>
       </c>
-    </row>
-    <row r="32" ht="13.5" spans="1:19">
+      <c r="U31" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" ht="13.5" spans="1:21">
       <c r="A32" s="23">
         <v>25</v>
       </c>
       <c r="B32" s="24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C32" s="25">
         <v>0.053</v>
@@ -3448,13 +3533,16 @@
       <c r="S32" s="33">
         <v>66.283</v>
       </c>
-    </row>
-    <row r="33" ht="13.5" spans="1:19">
+      <c r="U32" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" ht="13.5" spans="1:21">
       <c r="A33" s="23">
         <v>26</v>
       </c>
       <c r="B33" s="24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C33" s="25">
         <v>0.049</v>
@@ -3483,13 +3571,16 @@
       <c r="S33" s="33">
         <v>88.003</v>
       </c>
-    </row>
-    <row r="34" ht="13.5" spans="1:19">
+      <c r="U33" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" ht="13.5" spans="1:21">
       <c r="A34" s="23">
         <v>27</v>
       </c>
       <c r="B34" s="24" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C34" s="25">
         <v>0.057</v>
@@ -3518,13 +3609,16 @@
       <c r="S34" s="33">
         <v>62.412</v>
       </c>
-    </row>
-    <row r="35" ht="13.5" spans="1:19">
+      <c r="U34" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" ht="13.5" spans="1:21">
       <c r="A35" s="23">
         <v>28</v>
       </c>
       <c r="B35" s="24" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C35" s="25">
         <v>0.083</v>
@@ -3553,13 +3647,16 @@
       <c r="S35" s="33">
         <v>59.675</v>
       </c>
-    </row>
-    <row r="36" ht="13.5" spans="1:19">
+      <c r="U35" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" ht="13.5" spans="1:21">
       <c r="A36" s="23">
         <v>29</v>
       </c>
       <c r="B36" s="24" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C36" s="25">
         <v>0.123</v>
@@ -3588,13 +3685,16 @@
       <c r="S36" s="33">
         <v>68.766</v>
       </c>
-    </row>
-    <row r="37" ht="13.5" spans="1:19">
+      <c r="U36" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37" ht="13.5" spans="1:21">
       <c r="A37" s="23">
         <v>30</v>
       </c>
       <c r="B37" s="24" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C37" s="25">
         <v>0.056</v>
@@ -3623,13 +3723,16 @@
       <c r="S37" s="33">
         <v>57.592</v>
       </c>
-    </row>
-    <row r="38" ht="13.5" spans="1:19">
+      <c r="U37" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="38" ht="13.5" spans="1:21">
       <c r="A38" s="23">
         <v>31</v>
       </c>
       <c r="B38" s="24" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C38" s="25">
         <v>0.1</v>
@@ -3658,13 +3761,16 @@
       <c r="S38" s="33">
         <v>70.169</v>
       </c>
-    </row>
-    <row r="39" ht="13.5" spans="1:19">
+      <c r="U38" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="39" ht="13.5" spans="1:21">
       <c r="A39" s="23">
         <v>32</v>
       </c>
       <c r="B39" s="24" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C39" s="25">
         <v>0.12</v>
@@ -3693,13 +3799,16 @@
       <c r="S39" s="33">
         <v>68.064</v>
       </c>
-    </row>
-    <row r="40" ht="13.5" spans="1:19">
+      <c r="U39" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="40" ht="13.5" spans="1:21">
       <c r="A40" s="23">
         <v>33</v>
       </c>
       <c r="B40" s="24" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C40" s="25">
         <v>0.119</v>
@@ -3728,13 +3837,16 @@
       <c r="S40" s="33">
         <v>58.108</v>
       </c>
-    </row>
-    <row r="41" ht="13.5" spans="1:19">
+      <c r="U40" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="41" ht="13.5" spans="1:21">
       <c r="A41" s="23">
         <v>34</v>
       </c>
       <c r="B41" s="24" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C41" s="25">
         <v>0.109</v>
@@ -3763,13 +3875,16 @@
       <c r="S41" s="33">
         <v>65.489</v>
       </c>
-    </row>
-    <row r="42" ht="13.5" spans="1:19">
+      <c r="U41" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="42" ht="13.5" spans="1:21">
       <c r="A42" s="23">
         <v>35</v>
       </c>
       <c r="B42" s="24" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C42" s="25">
         <v>0.181</v>
@@ -3798,13 +3913,16 @@
       <c r="S42" s="33">
         <v>83.531</v>
       </c>
-    </row>
-    <row r="43" ht="13.5" spans="1:19">
+      <c r="U42" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="43" ht="13.5" spans="1:21">
       <c r="A43" s="23">
         <v>35</v>
       </c>
       <c r="B43" s="24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C43" s="25">
         <v>0.105</v>
@@ -3833,13 +3951,16 @@
       <c r="S43" s="33">
         <v>67.865</v>
       </c>
-    </row>
-    <row r="44" ht="13.5" spans="1:19">
+      <c r="U43" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="44" ht="13.5" spans="1:21">
       <c r="A44" s="23">
         <v>35</v>
       </c>
       <c r="B44" s="24" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C44" s="25">
         <v>0.247</v>
@@ -3868,13 +3989,16 @@
       <c r="S44" s="33">
         <v>80.146</v>
       </c>
-    </row>
-    <row r="45" ht="13.5" spans="1:19">
+      <c r="U44" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="45" ht="13.5" spans="1:21">
       <c r="A45" s="23">
         <v>38</v>
       </c>
       <c r="B45" s="24" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C45" s="25">
         <v>0.067</v>
@@ -3903,13 +4027,16 @@
       <c r="S45" s="33">
         <v>62.208</v>
       </c>
-    </row>
-    <row r="46" ht="13.5" spans="1:19">
+      <c r="U45" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="46" ht="13.5" spans="1:21">
       <c r="A46" s="23">
         <v>39</v>
       </c>
       <c r="B46" s="24" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C46" s="25">
         <v>0.151</v>
@@ -3940,22 +4067,25 @@
       <c r="S46" s="33">
         <v>66.827</v>
       </c>
-    </row>
-    <row r="47" ht="13.5" spans="1:19">
+      <c r="U46" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="47" ht="13.5" spans="1:21">
       <c r="A47" s="23">
         <v>40</v>
       </c>
       <c r="B47" s="24" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C47" s="26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E47" s="26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G47" s="26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I47" s="33">
         <v>5.887</v>
@@ -3972,18 +4102,21 @@
       </c>
       <c r="P47" s="27"/>
       <c r="Q47" s="26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="S47" s="26" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="48" ht="13.5" spans="1:19">
+        <v>26</v>
+      </c>
+      <c r="U47" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="48" ht="13.5" spans="1:21">
       <c r="A48" s="23">
         <v>40</v>
       </c>
       <c r="B48" s="24" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C48" s="25">
         <v>0.093</v>
@@ -4014,13 +4147,16 @@
       <c r="S48" s="33">
         <v>58.751</v>
       </c>
-    </row>
-    <row r="49" ht="13.5" spans="1:19">
+      <c r="U48" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="49" ht="13.5" spans="1:21">
       <c r="A49" s="23">
         <v>42</v>
       </c>
       <c r="B49" s="24" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C49" s="25">
         <v>0.187</v>
@@ -4051,13 +4187,16 @@
       <c r="S49" s="33">
         <v>65.547</v>
       </c>
-    </row>
-    <row r="50" ht="13.5" spans="1:19">
+      <c r="U49" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="50" ht="13.5" spans="1:21">
       <c r="A50" s="23">
         <v>42</v>
       </c>
       <c r="B50" s="24" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C50" s="25">
         <v>0.22</v>
@@ -4088,22 +4227,25 @@
       <c r="S50" s="33">
         <v>95.456</v>
       </c>
-    </row>
-    <row r="51" ht="13.5" spans="1:19">
+      <c r="U50" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="51" ht="13.5" spans="1:21">
       <c r="A51" s="23">
         <v>44</v>
       </c>
       <c r="B51" s="24" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C51" s="26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E51" s="26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G51" s="26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I51" s="33">
         <v>3.751</v>
@@ -4118,18 +4260,21 @@
         <v>84.284729</v>
       </c>
       <c r="Q51" s="26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="S51" s="26" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="52" ht="13.5" spans="1:19">
+        <v>26</v>
+      </c>
+      <c r="U51" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="52" ht="13.5" spans="1:21">
       <c r="A52" s="23">
         <v>45</v>
       </c>
       <c r="B52" s="24" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C52" s="25">
         <v>0.18</v>
@@ -4158,13 +4303,16 @@
       <c r="S52" s="33">
         <v>66.415</v>
       </c>
-    </row>
-    <row r="53" ht="13.5" spans="1:19">
+      <c r="U52" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="53" ht="13.5" spans="1:21">
       <c r="A53" s="23">
         <v>46</v>
       </c>
       <c r="B53" s="24" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C53" s="25">
         <v>0.221</v>
@@ -4193,13 +4341,16 @@
       <c r="S53" s="33">
         <v>67.21</v>
       </c>
-    </row>
-    <row r="54" ht="13.5" spans="1:19">
+      <c r="U53" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="54" ht="13.5" spans="1:21">
       <c r="A54" s="23">
         <v>47</v>
       </c>
       <c r="B54" s="24" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C54" s="25">
         <v>0.287</v>
@@ -4230,13 +4381,16 @@
       <c r="S54" s="33">
         <v>71.603</v>
       </c>
-    </row>
-    <row r="55" ht="13.5" spans="1:19">
+      <c r="U54" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="55" ht="13.5" spans="1:21">
       <c r="A55" s="23">
         <v>48</v>
       </c>
       <c r="B55" s="24" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C55" s="25">
         <v>0.272</v>
@@ -4265,13 +4419,16 @@
       <c r="S55" s="33">
         <v>69.407</v>
       </c>
-    </row>
-    <row r="56" ht="13.5" spans="1:19">
+      <c r="U55" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="56" ht="13.5" spans="1:21">
       <c r="A56" s="23">
         <v>49</v>
       </c>
       <c r="B56" s="24" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C56" s="25">
         <v>0.119</v>
@@ -4302,13 +4459,16 @@
       <c r="S56" s="33">
         <v>62.006</v>
       </c>
-    </row>
-    <row r="57" ht="13.5" spans="1:19">
+      <c r="U56" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="57" ht="13.5" spans="1:21">
       <c r="A57" s="23">
         <v>50</v>
       </c>
       <c r="B57" s="24" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C57" s="25">
         <v>0.305</v>
@@ -4339,13 +4499,16 @@
       <c r="S57" s="33">
         <v>83.804</v>
       </c>
-    </row>
-    <row r="58" ht="13.5" spans="1:19">
+      <c r="U57" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="58" ht="13.5" spans="1:21">
       <c r="A58" s="23">
         <v>51</v>
       </c>
       <c r="B58" s="24" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C58" s="25">
         <v>0.259</v>
@@ -4374,13 +4537,16 @@
       <c r="S58" s="33">
         <v>72.339</v>
       </c>
-    </row>
-    <row r="59" ht="13.5" spans="1:19">
+      <c r="U58" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="59" ht="13.5" spans="1:21">
       <c r="A59" s="23">
         <v>52</v>
       </c>
       <c r="B59" s="24" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C59" s="25">
         <v>0.203</v>
@@ -4411,13 +4577,16 @@
       <c r="S59" s="33">
         <v>69.717</v>
       </c>
-    </row>
-    <row r="60" ht="13.5" spans="1:19">
+      <c r="U59" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="60" ht="13.5" spans="1:21">
       <c r="A60" s="23">
         <v>53</v>
       </c>
       <c r="B60" s="24" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C60" s="25">
         <v>0.282</v>
@@ -4446,13 +4615,16 @@
       <c r="S60" s="33">
         <v>62.34</v>
       </c>
-    </row>
-    <row r="61" ht="13.5" spans="1:19">
+      <c r="U60" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="61" ht="13.5" spans="1:21">
       <c r="A61" s="23">
         <v>54</v>
       </c>
       <c r="B61" s="24" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C61" s="25">
         <v>0.3</v>
@@ -4481,13 +4653,16 @@
       <c r="S61" s="33">
         <v>85.042</v>
       </c>
-    </row>
-    <row r="62" ht="13.5" spans="1:19">
+      <c r="U61" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="62" ht="13.5" spans="1:21">
       <c r="A62" s="23">
         <v>55</v>
       </c>
       <c r="B62" s="24" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C62" s="25">
         <v>0.329</v>
@@ -4518,13 +4693,16 @@
       <c r="S62" s="33">
         <v>71.486</v>
       </c>
-    </row>
-    <row r="63" ht="13.5" spans="1:19">
+      <c r="U62" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="63" ht="13.5" spans="1:21">
       <c r="A63" s="23">
         <v>56</v>
       </c>
       <c r="B63" s="24" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C63" s="25">
         <v>0.161</v>
@@ -4555,13 +4733,16 @@
       <c r="S63" s="33">
         <v>75.518</v>
       </c>
-    </row>
-    <row r="64" ht="13.5" spans="1:19">
+      <c r="U63" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="64" ht="13.5" spans="1:21">
       <c r="A64" s="23">
         <v>57</v>
       </c>
       <c r="B64" s="24" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C64" s="25">
         <v>0.344</v>
@@ -4592,13 +4773,16 @@
       <c r="S64" s="33">
         <v>67.961</v>
       </c>
-    </row>
-    <row r="65" ht="13.5" spans="1:19">
+      <c r="U64" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="65" ht="13.5" spans="1:21">
       <c r="A65" s="23">
         <v>58</v>
       </c>
       <c r="B65" s="24" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C65" s="25">
         <v>0.256</v>
@@ -4627,13 +4811,16 @@
       <c r="S65" s="33">
         <v>71.142</v>
       </c>
-    </row>
-    <row r="66" ht="13.5" spans="1:19">
+      <c r="U65" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="66" ht="13.5" spans="1:21">
       <c r="A66" s="23">
         <v>58</v>
       </c>
       <c r="B66" s="24" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C66" s="25">
         <v>0.235</v>
@@ -4662,13 +4849,16 @@
       <c r="S66" s="33">
         <v>69.25</v>
       </c>
-    </row>
-    <row r="67" ht="13.5" spans="1:19">
+      <c r="U66" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="67" ht="13.5" spans="1:21">
       <c r="A67" s="23">
         <v>60</v>
       </c>
       <c r="B67" s="24" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C67" s="25">
         <v>0.104</v>
@@ -4697,13 +4887,16 @@
       <c r="S67" s="33">
         <v>71.387</v>
       </c>
-    </row>
-    <row r="68" ht="13.5" spans="1:19">
+      <c r="U67" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="68" ht="13.5" spans="1:21">
       <c r="A68" s="23">
         <v>61</v>
       </c>
       <c r="B68" s="24" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C68" s="25">
         <v>0.392</v>
@@ -4732,13 +4925,16 @@
       <c r="S68" s="33">
         <v>72.572</v>
       </c>
-    </row>
-    <row r="69" ht="13.5" spans="1:19">
+      <c r="U68" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="69" ht="13.5" spans="1:21">
       <c r="A69" s="23">
         <v>62</v>
       </c>
       <c r="B69" s="24" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C69" s="25">
         <v>0.228</v>
@@ -4767,13 +4963,16 @@
       <c r="S69" s="33">
         <v>77.551</v>
       </c>
-    </row>
-    <row r="70" ht="13.5" spans="1:19">
+      <c r="U69" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="70" ht="13.5" spans="1:21">
       <c r="A70" s="23">
         <v>63</v>
       </c>
       <c r="B70" s="24" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C70" s="25">
         <v>0.28</v>
@@ -4802,13 +5001,16 @@
       <c r="S70" s="33">
         <v>68.03</v>
       </c>
-    </row>
-    <row r="71" ht="13.5" spans="1:19">
+      <c r="U70" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="71" ht="13.5" spans="1:21">
       <c r="A71" s="23">
         <v>63</v>
       </c>
       <c r="B71" s="24" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C71" s="25">
         <v>0.347</v>
@@ -4839,13 +5041,16 @@
       <c r="S71" s="33">
         <v>70.448</v>
       </c>
-    </row>
-    <row r="72" ht="13.5" spans="1:19">
+      <c r="U71" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="72" ht="13.5" spans="1:21">
       <c r="A72" s="23">
         <v>63</v>
       </c>
       <c r="B72" s="24" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C72" s="25">
         <v>0.131</v>
@@ -4874,13 +5079,16 @@
       <c r="S72" s="33">
         <v>62.272</v>
       </c>
-    </row>
-    <row r="73" ht="13.5" spans="1:19">
+      <c r="U72" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="73" ht="13.5" spans="1:21">
       <c r="A73" s="23">
         <v>66</v>
       </c>
       <c r="B73" s="24" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C73" s="25">
         <v>0.333</v>
@@ -4909,34 +5117,32 @@
       <c r="S73" s="33">
         <v>75.027</v>
       </c>
-    </row>
-    <row r="74" ht="13.5" spans="1:19">
+      <c r="U73" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="74" ht="13.5" spans="1:21">
       <c r="A74" s="23">
         <v>67</v>
       </c>
       <c r="B74" s="24" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C74" s="25">
         <v>0.144</v>
       </c>
-      <c r="D74" s="1"/>
       <c r="E74" s="23">
         <v>39</v>
       </c>
-      <c r="F74" s="1"/>
       <c r="G74" s="23">
         <v>15</v>
       </c>
-      <c r="H74" s="1"/>
       <c r="I74" s="33">
         <v>14.517</v>
       </c>
-      <c r="J74" s="1"/>
       <c r="K74" s="33">
         <v>35.71428571</v>
       </c>
-      <c r="L74" s="1"/>
       <c r="M74" s="33">
         <v>95.38750547</v>
       </c>
@@ -4948,17 +5154,19 @@
       <c r="Q74" s="33">
         <v>50.733</v>
       </c>
-      <c r="R74" s="1"/>
       <c r="S74" s="33">
         <v>66.154</v>
       </c>
-    </row>
-    <row r="75" s="8" customFormat="1" ht="13.5" spans="1:20">
+      <c r="U74" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="75" s="8" customFormat="1" ht="13.5" spans="1:21">
       <c r="A75" s="23">
         <v>68</v>
       </c>
       <c r="B75" s="24" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C75" s="25">
         <v>0.21</v>
@@ -4996,19 +5204,22 @@
         <v>62.636</v>
       </c>
       <c r="T75" s="1"/>
-    </row>
-    <row r="76" ht="13.5" spans="1:19">
+      <c r="U75" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="76" ht="13.5" spans="1:21">
       <c r="A76" s="23">
         <v>68</v>
       </c>
       <c r="B76" s="24" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C76" s="26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E76" s="26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G76" s="23">
         <v>25</v>
@@ -5020,24 +5231,27 @@
         <v>32.14285714</v>
       </c>
       <c r="M76" s="26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O76" s="26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q76" s="26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="S76" s="26" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="77" ht="13.5" spans="1:19">
+        <v>26</v>
+      </c>
+      <c r="U76" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="77" ht="13.5" spans="1:21">
       <c r="A77" s="23">
         <v>70</v>
       </c>
       <c r="B77" s="24" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C77" s="25">
         <v>0.268</v>
@@ -5068,19 +5282,22 @@
       <c r="S77" s="33">
         <v>63.727</v>
       </c>
-    </row>
-    <row r="78" ht="13.5" spans="1:19">
+      <c r="U77" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="78" ht="13.5" spans="1:21">
       <c r="A78" s="23">
         <v>71</v>
       </c>
       <c r="B78" s="24" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C78" s="26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E78" s="26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G78" s="23">
         <v>42</v>
@@ -5092,30 +5309,33 @@
         <v>31.42857143</v>
       </c>
       <c r="M78" s="26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O78" s="26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q78" s="26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="S78" s="26" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="79" ht="13.5" spans="1:19">
+        <v>26</v>
+      </c>
+      <c r="U78" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="79" ht="13.5" spans="1:21">
       <c r="A79" s="23">
         <v>72</v>
       </c>
       <c r="B79" s="24" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C79" s="26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E79" s="26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G79" s="23">
         <v>53</v>
@@ -5127,24 +5347,27 @@
         <v>22.85714286</v>
       </c>
       <c r="M79" s="26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O79" s="26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q79" s="26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="S79" s="26" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="80" ht="13.5" spans="1:19">
+        <v>26</v>
+      </c>
+      <c r="U79" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="80" ht="13.5" spans="1:21">
       <c r="A80" s="23">
         <v>73</v>
       </c>
       <c r="B80" s="24" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C80" s="25">
         <v>0.383</v>
@@ -5173,13 +5396,16 @@
       <c r="S80" s="33">
         <v>68.495</v>
       </c>
-    </row>
-    <row r="81" ht="13.5" spans="1:19">
+      <c r="U80" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="81" ht="13.5" spans="1:21">
       <c r="A81" s="23">
         <v>74</v>
       </c>
       <c r="B81" s="24" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C81" s="25">
         <v>0.136</v>
@@ -5208,22 +5434,25 @@
       <c r="S81" s="33">
         <v>52.351</v>
       </c>
-    </row>
-    <row r="82" ht="13.5" spans="1:19">
+      <c r="U81" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="82" ht="13.5" spans="1:21">
       <c r="A82" s="23">
         <v>75</v>
       </c>
       <c r="B82" s="24" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C82" s="26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E82" s="26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G82" s="26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I82" s="33">
         <v>38.154</v>
@@ -5232,24 +5461,27 @@
         <v>25</v>
       </c>
       <c r="M82" s="26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O82" s="26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q82" s="26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="S82" s="26" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="83" ht="13.5" spans="1:19">
+        <v>26</v>
+      </c>
+      <c r="U82" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="83" ht="13.5" spans="1:21">
       <c r="A83" s="23">
         <v>76</v>
       </c>
       <c r="B83" s="24" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C83" s="25">
         <v>0.459</v>
@@ -5280,13 +5512,16 @@
       <c r="S83" s="33">
         <v>68.086</v>
       </c>
-    </row>
-    <row r="84" ht="13.5" spans="1:19">
+      <c r="U83" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="84" ht="13.5" spans="1:21">
       <c r="A84" s="23">
         <v>77</v>
       </c>
       <c r="B84" s="24" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C84" s="25">
         <v>0.2</v>
@@ -5317,13 +5552,16 @@
       <c r="S84" s="33">
         <v>63.567</v>
       </c>
-    </row>
-    <row r="85" ht="13.5" spans="1:19">
+      <c r="U84" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="85" ht="13.5" spans="1:21">
       <c r="A85" s="23">
         <v>78</v>
       </c>
       <c r="B85" s="24" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C85" s="25">
         <v>0.134</v>
@@ -5352,13 +5590,16 @@
       <c r="S85" s="33">
         <v>63.444</v>
       </c>
-    </row>
-    <row r="86" ht="13.5" spans="1:19">
+      <c r="U85" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="86" ht="13.5" spans="1:21">
       <c r="A86" s="23">
         <v>79</v>
       </c>
       <c r="B86" s="24" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C86" s="25">
         <v>0.192</v>
@@ -5389,13 +5630,16 @@
       <c r="S86" s="33">
         <v>74.29</v>
       </c>
-    </row>
-    <row r="87" ht="13.5" spans="1:19">
+      <c r="U86" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="87" ht="13.5" spans="1:21">
       <c r="A87" s="23">
         <v>80</v>
       </c>
       <c r="B87" s="24" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C87" s="25">
         <v>0.429</v>
@@ -5426,13 +5670,16 @@
       <c r="S87" s="33">
         <v>75.162</v>
       </c>
-    </row>
-    <row r="88" ht="13.5" spans="1:19">
+      <c r="U87" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="88" ht="13.5" spans="1:21">
       <c r="A88" s="23">
         <v>80</v>
       </c>
       <c r="B88" s="24" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C88" s="25">
         <v>0.205</v>
@@ -5461,22 +5708,25 @@
       <c r="S88" s="33">
         <v>43.932</v>
       </c>
-    </row>
-    <row r="89" ht="13.5" spans="1:19">
+      <c r="U88" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="89" ht="13.5" spans="1:21">
       <c r="A89" s="23">
         <v>80</v>
       </c>
       <c r="B89" s="24" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C89" s="26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E89" s="26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G89" s="26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I89" s="33">
         <v>42.52</v>
@@ -5491,18 +5741,21 @@
         <v>97.33132172</v>
       </c>
       <c r="Q89" s="26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="S89" s="26" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="90" ht="13.5" spans="1:19">
+        <v>26</v>
+      </c>
+      <c r="U89" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="90" ht="13.5" spans="1:21">
       <c r="A90" s="23">
         <v>83</v>
       </c>
       <c r="B90" s="24" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C90" s="25">
         <v>0.303</v>
@@ -5533,13 +5786,16 @@
       <c r="S90" s="33">
         <v>68.454</v>
       </c>
-    </row>
-    <row r="91" ht="13.5" spans="1:19">
+      <c r="U90" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="91" ht="13.5" spans="1:21">
       <c r="A91" s="23">
         <v>84</v>
       </c>
       <c r="B91" s="24" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C91" s="25">
         <v>0.38</v>
@@ -5570,13 +5826,16 @@
       <c r="S91" s="33">
         <v>81.875</v>
       </c>
-    </row>
-    <row r="92" ht="13.5" spans="1:19">
+      <c r="U91" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" ht="13.5" spans="1:21">
       <c r="A92" s="23">
         <v>85</v>
       </c>
       <c r="B92" s="24" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C92" s="25">
         <v>0.216</v>
@@ -5605,13 +5864,16 @@
       <c r="S92" s="33">
         <v>63.004</v>
       </c>
-    </row>
-    <row r="93" ht="13.5" spans="1:19">
+      <c r="U92" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="93" ht="13.5" spans="1:21">
       <c r="A93" s="23">
         <v>86</v>
       </c>
       <c r="B93" s="24" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C93" s="25">
         <v>0.309</v>
@@ -5640,13 +5902,16 @@
       <c r="S93" s="33">
         <v>75.415</v>
       </c>
-    </row>
-    <row r="94" ht="13.5" spans="1:19">
+      <c r="U93" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="94" ht="13.5" spans="1:21">
       <c r="A94" s="23">
         <v>87</v>
       </c>
       <c r="B94" s="24" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C94" s="25">
         <v>0.39</v>
@@ -5677,13 +5942,16 @@
       <c r="S94" s="33">
         <v>68.24</v>
       </c>
-    </row>
-    <row r="95" ht="13.5" spans="1:19">
+      <c r="U94" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="95" ht="13.5" spans="1:21">
       <c r="A95" s="23">
         <v>88</v>
       </c>
       <c r="B95" s="24" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C95" s="25">
         <v>0.424</v>
@@ -5712,13 +5980,16 @@
       <c r="S95" s="33">
         <v>77.998</v>
       </c>
-    </row>
-    <row r="96" ht="13.5" spans="1:19">
+      <c r="U95" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="96" ht="13.5" spans="1:21">
       <c r="A96" s="23">
         <v>89</v>
       </c>
       <c r="B96" s="24" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C96" s="25">
         <v>0.39</v>
@@ -5747,13 +6018,16 @@
       <c r="S96" s="33">
         <v>74.1</v>
       </c>
-    </row>
-    <row r="97" ht="13.5" spans="1:19">
+      <c r="U96" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="97" ht="13.5" spans="1:21">
       <c r="A97" s="23">
         <v>90</v>
       </c>
       <c r="B97" s="24" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C97" s="25">
         <v>0.348</v>
@@ -5784,13 +6058,16 @@
       <c r="S97" s="33">
         <v>67.494</v>
       </c>
-    </row>
-    <row r="98" ht="13.5" spans="1:19">
+      <c r="U97" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="98" ht="13.5" spans="1:21">
       <c r="A98" s="23">
         <v>91</v>
       </c>
       <c r="B98" s="24" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C98" s="25">
         <v>0.499</v>
@@ -5821,13 +6098,16 @@
       <c r="S98" s="33">
         <v>64.48</v>
       </c>
-    </row>
-    <row r="99" ht="13.5" spans="1:19">
+      <c r="U98" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="99" ht="13.5" spans="1:21">
       <c r="A99" s="23">
         <v>91</v>
       </c>
       <c r="B99" s="24" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C99" s="25">
         <v>0.294</v>
@@ -5856,13 +6136,16 @@
       <c r="S99" s="33">
         <v>67.342</v>
       </c>
-    </row>
-    <row r="100" ht="13.5" spans="1:19">
+      <c r="U99" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="100" ht="13.5" spans="1:21">
       <c r="A100" s="23">
         <v>91</v>
       </c>
       <c r="B100" s="24" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C100" s="25">
         <v>0.631</v>
@@ -5894,13 +6177,16 @@
       <c r="S100" s="33">
         <v>55.263</v>
       </c>
-    </row>
-    <row r="101" ht="13.5" spans="1:19">
+      <c r="U100" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="101" ht="13.5" spans="1:21">
       <c r="A101" s="23">
         <v>91</v>
       </c>
       <c r="B101" s="24" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C101" s="25">
         <v>0.177</v>
@@ -5929,13 +6215,16 @@
       <c r="S101" s="33">
         <v>55.59</v>
       </c>
-    </row>
-    <row r="102" ht="13.5" spans="1:19">
+      <c r="U101" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="102" ht="13.5" spans="1:21">
       <c r="A102" s="23">
         <v>95</v>
       </c>
       <c r="B102" s="24" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C102" s="25">
         <v>0.362</v>
@@ -5964,13 +6253,16 @@
       <c r="S102" s="33">
         <v>76.519</v>
       </c>
-    </row>
-    <row r="103" ht="13.5" spans="1:19">
+      <c r="U102" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="103" ht="13.5" spans="1:21">
       <c r="A103" s="23">
         <v>96</v>
       </c>
       <c r="B103" s="24" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C103" s="25">
         <v>0.313</v>
@@ -5999,13 +6291,16 @@
       <c r="S103" s="33">
         <v>66.572</v>
       </c>
-    </row>
-    <row r="104" ht="13.5" spans="1:19">
+      <c r="U103" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="104" ht="13.5" spans="1:21">
       <c r="A104" s="23">
         <v>97</v>
       </c>
       <c r="B104" s="24" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C104" s="25">
         <v>0.443</v>
@@ -6036,13 +6331,16 @@
       <c r="S104" s="33">
         <v>67.088</v>
       </c>
-    </row>
-    <row r="105" ht="13.5" spans="1:19">
+      <c r="U104" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="105" ht="13.5" spans="1:21">
       <c r="A105" s="23">
         <v>97</v>
       </c>
       <c r="B105" s="24" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C105" s="25">
         <v>0.259</v>
@@ -6073,13 +6371,16 @@
       <c r="S105" s="33">
         <v>67.15</v>
       </c>
-    </row>
-    <row r="106" ht="13.5" spans="1:19">
+      <c r="U105" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="106" ht="13.5" spans="1:21">
       <c r="A106" s="23">
         <v>99</v>
       </c>
       <c r="B106" s="24" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C106" s="25">
         <v>0.318</v>
@@ -6110,13 +6411,16 @@
       <c r="S106" s="33">
         <v>75.257</v>
       </c>
-    </row>
-    <row r="107" ht="13.5" spans="1:19">
+      <c r="U106" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="107" ht="13.5" spans="1:21">
       <c r="A107" s="23">
         <v>99</v>
       </c>
       <c r="B107" s="24" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C107" s="25">
         <v>0.427</v>
@@ -6147,13 +6451,16 @@
       <c r="S107" s="33">
         <v>65.065</v>
       </c>
-    </row>
-    <row r="108" ht="13.5" spans="1:19">
+      <c r="U107" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="108" ht="13.5" spans="1:21">
       <c r="A108" s="23">
         <v>101</v>
       </c>
       <c r="B108" s="24" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C108" s="25">
         <v>0.227</v>
@@ -6182,22 +6489,25 @@
       <c r="S108" s="33">
         <v>70.916</v>
       </c>
-    </row>
-    <row r="109" ht="13.5" spans="1:19">
+      <c r="U108" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="109" ht="13.5" spans="1:21">
       <c r="A109" s="23">
         <v>102</v>
       </c>
       <c r="B109" s="24" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C109" s="26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E109" s="26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G109" s="26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I109" s="33">
         <v>38.49</v>
@@ -6206,24 +6516,27 @@
         <v>34.375</v>
       </c>
       <c r="M109" s="26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O109" s="26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q109" s="26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="S109" s="26" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="110" ht="13.5" spans="1:19">
+        <v>26</v>
+      </c>
+      <c r="U109" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="110" ht="13.5" spans="1:21">
       <c r="A110" s="23">
         <v>102</v>
       </c>
       <c r="B110" s="24" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C110" s="25">
         <v>0.471</v>
@@ -6252,13 +6565,16 @@
       <c r="S110" s="33">
         <v>62.322</v>
       </c>
-    </row>
-    <row r="111" ht="13.5" spans="1:19">
+      <c r="U110" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="111" ht="13.5" spans="1:21">
       <c r="A111" s="23">
         <v>104</v>
       </c>
       <c r="B111" s="24" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C111" s="25">
         <v>0.259</v>
@@ -6289,13 +6605,16 @@
       <c r="S111" s="33">
         <v>60.969</v>
       </c>
-    </row>
-    <row r="112" ht="13.5" spans="1:19">
+      <c r="U111" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="112" ht="13.5" spans="1:21">
       <c r="A112" s="23">
         <v>105</v>
       </c>
       <c r="B112" s="24" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C112" s="25">
         <v>0.445</v>
@@ -6324,19 +6643,22 @@
       <c r="S112" s="33">
         <v>84.214</v>
       </c>
-    </row>
-    <row r="113" ht="13.5" spans="1:19">
+      <c r="U112" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="113" ht="13.5" spans="1:21">
       <c r="A113" s="23">
         <v>106</v>
       </c>
       <c r="B113" s="24" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C113" s="26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E113" s="26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G113" s="23">
         <v>27</v>
@@ -6345,7 +6667,7 @@
         <v>43.469</v>
       </c>
       <c r="K113" s="26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M113" s="33">
         <v>67.92896271</v>
@@ -6359,13 +6681,16 @@
       <c r="S113" s="33">
         <v>66.286</v>
       </c>
-    </row>
-    <row r="114" ht="13.5" spans="1:19">
+      <c r="U113" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="114" ht="13.5" spans="1:21">
       <c r="A114" s="23">
         <v>106</v>
       </c>
       <c r="B114" s="24" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C114" s="25">
         <v>0.381</v>
@@ -6394,13 +6719,16 @@
       <c r="S114" s="33">
         <v>73.228</v>
       </c>
-    </row>
-    <row r="115" ht="13.5" spans="1:19">
+      <c r="U114" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="115" ht="13.5" spans="1:21">
       <c r="A115" s="23">
         <v>108</v>
       </c>
       <c r="B115" s="24" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C115" s="25">
         <v>0.454</v>
@@ -6429,13 +6757,16 @@
       <c r="S115" s="33">
         <v>64.097</v>
       </c>
-    </row>
-    <row r="116" ht="13.5" spans="1:19">
+      <c r="U115" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="116" ht="13.5" spans="1:21">
       <c r="A116" s="23">
         <v>109</v>
       </c>
       <c r="B116" s="24" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C116" s="25">
         <v>0.405</v>
@@ -6465,13 +6796,16 @@
       <c r="S116" s="33">
         <v>59.883</v>
       </c>
-    </row>
-    <row r="117" ht="13.5" spans="1:19">
+      <c r="U116" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="117" ht="13.5" spans="1:21">
       <c r="A117" s="23">
         <v>110</v>
       </c>
       <c r="B117" s="24" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C117" s="25">
         <v>0.335</v>
@@ -6502,13 +6836,16 @@
       <c r="S117" s="33">
         <v>70.003</v>
       </c>
-    </row>
-    <row r="118" ht="13.5" spans="1:19">
+      <c r="U117" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="118" ht="13.5" spans="1:21">
       <c r="A118" s="23">
         <v>111</v>
       </c>
       <c r="B118" s="24" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C118" s="25">
         <v>0.418</v>
@@ -6539,13 +6876,16 @@
       <c r="S118" s="33">
         <v>54.237</v>
       </c>
-    </row>
-    <row r="119" ht="13.5" spans="1:19">
+      <c r="U118" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="119" ht="13.5" spans="1:21">
       <c r="A119" s="23">
         <v>112</v>
       </c>
       <c r="B119" s="24" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C119" s="25">
         <v>0.541</v>
@@ -6576,13 +6916,16 @@
       <c r="S119" s="33">
         <v>57.012</v>
       </c>
-    </row>
-    <row r="120" ht="13.5" spans="1:19">
+      <c r="U119" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="120" ht="13.5" spans="1:21">
       <c r="A120" s="23">
         <v>112</v>
       </c>
       <c r="B120" s="24" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C120" s="25">
         <v>0.432</v>
@@ -6613,13 +6956,16 @@
       <c r="S120" s="33">
         <v>64.332</v>
       </c>
-    </row>
-    <row r="121" ht="13.5" spans="1:19">
+      <c r="U120" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="121" ht="13.5" spans="1:21">
       <c r="A121" s="23">
         <v>114</v>
       </c>
       <c r="B121" s="24" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C121" s="25">
         <v>0.444</v>
@@ -6648,13 +6994,16 @@
       <c r="S121" s="33">
         <v>81.668</v>
       </c>
-    </row>
-    <row r="122" ht="13.5" spans="1:19">
+      <c r="U121" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="122" ht="13.5" spans="1:21">
       <c r="A122" s="23">
         <v>115</v>
       </c>
       <c r="B122" s="24" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C122" s="25">
         <v>0.296</v>
@@ -6683,99 +7032,92 @@
       <c r="S122" s="33">
         <v>79.437</v>
       </c>
-    </row>
-    <row r="123" ht="13.5" spans="1:19">
+      <c r="U122" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="123" ht="13.5" spans="1:21">
       <c r="A123" s="23">
         <v>116</v>
       </c>
       <c r="B123" s="24" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C123" s="25">
         <v>0.419</v>
       </c>
-      <c r="D123" s="1"/>
       <c r="E123" s="23">
         <v>101</v>
       </c>
-      <c r="F123" s="1"/>
       <c r="G123" s="23">
         <v>121</v>
       </c>
-      <c r="H123" s="1"/>
       <c r="I123" s="33">
         <v>48.202</v>
       </c>
-      <c r="J123" s="1"/>
       <c r="K123" s="33">
         <v>28.04878049</v>
       </c>
-      <c r="L123" s="1"/>
       <c r="M123" s="33">
         <v>73.35157013</v>
       </c>
-      <c r="N123" s="1"/>
       <c r="O123" s="33">
         <v>69.08991241</v>
       </c>
-      <c r="P123" s="1"/>
       <c r="Q123" s="33">
         <v>43.836</v>
       </c>
-      <c r="R123" s="1"/>
       <c r="S123" s="33">
         <v>68.302</v>
       </c>
-    </row>
-    <row r="124" ht="13.5" spans="1:19">
+      <c r="U123" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="124" ht="13.5" spans="1:21">
       <c r="A124" s="23">
         <v>117</v>
       </c>
       <c r="B124" s="24" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C124" s="25">
         <v>0.468</v>
       </c>
-      <c r="D124" s="1"/>
       <c r="E124" s="23">
         <v>117</v>
       </c>
-      <c r="F124" s="1"/>
       <c r="G124" s="23">
         <v>144</v>
       </c>
-      <c r="H124" s="1"/>
       <c r="I124" s="33">
         <v>49.324</v>
       </c>
-      <c r="J124" s="1"/>
       <c r="K124" s="33">
         <v>10.76923077</v>
       </c>
-      <c r="L124" s="1"/>
       <c r="M124" s="33">
         <v>91.28</v>
       </c>
-      <c r="N124" s="1"/>
       <c r="O124" s="33">
         <v>91.78</v>
       </c>
-      <c r="P124" s="1"/>
       <c r="Q124" s="33">
         <v>56.282</v>
       </c>
-      <c r="R124" s="1"/>
       <c r="S124" s="33">
         <v>65.148</v>
       </c>
-    </row>
-    <row r="125" s="8" customFormat="1" ht="13.5" spans="1:20">
+      <c r="U124" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="125" s="8" customFormat="1" ht="13.5" spans="1:21">
       <c r="A125" s="23">
         <v>118</v>
       </c>
       <c r="B125" s="24" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C125" s="25">
         <v>0.418</v>
@@ -6813,13 +7155,16 @@
         <v>83.765</v>
       </c>
       <c r="T125" s="1"/>
-    </row>
-    <row r="126" ht="13.5" spans="1:19">
+      <c r="U125" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="126" ht="13.5" spans="1:21">
       <c r="A126" s="23">
         <v>118</v>
       </c>
       <c r="B126" s="24" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C126" s="25">
         <v>0.37</v>
@@ -6850,13 +7195,16 @@
       <c r="S126" s="33">
         <v>71.67</v>
       </c>
-    </row>
-    <row r="127" ht="13.5" spans="1:19">
+      <c r="U126" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="127" ht="13.5" spans="1:21">
       <c r="A127" s="23">
         <v>120</v>
       </c>
       <c r="B127" s="24" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C127" s="25">
         <v>0.492</v>
@@ -6887,13 +7235,16 @@
       <c r="S127" s="33">
         <v>67.813</v>
       </c>
-    </row>
-    <row r="128" ht="13.5" spans="1:19">
+      <c r="U127" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="128" ht="13.5" spans="1:21">
       <c r="A128" s="23">
         <v>121</v>
       </c>
       <c r="B128" s="24" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C128" s="25">
         <v>0.558</v>
@@ -6924,13 +7275,16 @@
       <c r="S128" s="33">
         <v>71.763</v>
       </c>
-    </row>
-    <row r="129" ht="13.5" spans="1:19">
+      <c r="U128" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="129" ht="13.5" spans="1:21">
       <c r="A129" s="23">
         <v>122</v>
       </c>
       <c r="B129" s="24" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C129" s="25">
         <v>0.285</v>
@@ -6961,13 +7315,16 @@
       <c r="S129" s="33">
         <v>50.534</v>
       </c>
-    </row>
-    <row r="130" ht="13.5" spans="1:19">
+      <c r="U129" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="130" ht="13.5" spans="1:21">
       <c r="A130" s="23">
         <v>123</v>
       </c>
       <c r="B130" s="24" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C130" s="25">
         <v>0.364</v>
@@ -6996,13 +7353,16 @@
       <c r="S130" s="33">
         <v>76.752</v>
       </c>
-    </row>
-    <row r="131" ht="13.5" spans="1:19">
+      <c r="U130" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="131" ht="13.5" spans="1:21">
       <c r="A131" s="23">
         <v>123</v>
       </c>
       <c r="B131" s="24" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C131" s="25">
         <v>0.425</v>
@@ -7031,13 +7391,16 @@
       <c r="S131" s="33">
         <v>65.95</v>
       </c>
-    </row>
-    <row r="132" ht="13.5" spans="1:19">
+      <c r="U131" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="132" ht="13.5" spans="1:21">
       <c r="A132" s="23">
         <v>125</v>
       </c>
       <c r="B132" s="24" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C132" s="25">
         <v>0.376</v>
@@ -7066,13 +7429,16 @@
       <c r="S132" s="33">
         <v>72.57</v>
       </c>
-    </row>
-    <row r="133" ht="13.5" spans="1:19">
+      <c r="U132" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="133" ht="13.5" spans="1:21">
       <c r="A133" s="23">
         <v>126</v>
       </c>
       <c r="B133" s="24" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C133" s="25">
         <v>0.424</v>
@@ -7101,13 +7467,16 @@
       <c r="S133" s="33">
         <v>81.299</v>
       </c>
-    </row>
-    <row r="134" ht="13.5" spans="1:19">
+      <c r="U133" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="134" ht="13.5" spans="1:21">
       <c r="A134" s="23">
         <v>127</v>
       </c>
       <c r="B134" s="24" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C134" s="25">
         <v>0.415</v>
@@ -7136,13 +7505,16 @@
       <c r="S134" s="33">
         <v>67.397</v>
       </c>
-    </row>
-    <row r="135" ht="13.5" spans="1:19">
+      <c r="U134" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="135" ht="13.5" spans="1:21">
       <c r="A135" s="23">
         <v>128</v>
       </c>
       <c r="B135" s="24" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C135" s="25">
         <v>0.349</v>
@@ -7173,13 +7545,16 @@
       <c r="S135" s="33">
         <v>61.705</v>
       </c>
-    </row>
-    <row r="136" ht="13.5" spans="1:19">
+      <c r="U135" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="136" ht="13.5" spans="1:21">
       <c r="A136" s="23">
         <v>129</v>
       </c>
       <c r="B136" s="24" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C136" s="25">
         <v>0.53</v>
@@ -7208,22 +7583,25 @@
       <c r="S136" s="33">
         <v>78.782</v>
       </c>
-    </row>
-    <row r="137" ht="13.5" spans="1:19">
+      <c r="U136" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="137" ht="13.5" spans="1:21">
       <c r="A137" s="23">
         <v>130</v>
       </c>
       <c r="B137" s="24" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C137" s="26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E137" s="26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G137" s="26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I137" s="33">
         <v>33.085</v>
@@ -7238,27 +7616,30 @@
         <v>60.71810913</v>
       </c>
       <c r="Q137" s="26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="S137" s="26" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="138" ht="13.5" spans="1:19">
+        <v>26</v>
+      </c>
+      <c r="U137" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="138" ht="13.5" spans="1:21">
       <c r="A138" s="23">
         <v>131</v>
       </c>
       <c r="B138" s="24" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C138" s="26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E138" s="26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G138" s="26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I138" s="33">
         <v>58.035</v>
@@ -7273,18 +7654,21 @@
         <v>92.46858215</v>
       </c>
       <c r="Q138" s="26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="S138" s="26" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="139" ht="13.5" spans="1:19">
+        <v>26</v>
+      </c>
+      <c r="U138" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="139" ht="13.5" spans="1:21">
       <c r="A139" s="23">
         <v>132</v>
       </c>
       <c r="B139" s="24" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C139" s="25">
         <v>0.49</v>
@@ -7316,13 +7700,16 @@
       <c r="S139" s="33">
         <v>70.092</v>
       </c>
-    </row>
-    <row r="140" ht="13.5" spans="1:19">
+      <c r="U139" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="140" ht="13.5" spans="1:21">
       <c r="A140" s="23">
         <v>133</v>
       </c>
       <c r="B140" s="24" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C140" s="25">
         <v>0.529</v>
@@ -7353,19 +7740,22 @@
       <c r="S140" s="33">
         <v>72.234</v>
       </c>
-    </row>
-    <row r="141" ht="13.5" spans="1:19">
+      <c r="U140" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="141" ht="13.5" spans="1:21">
       <c r="A141" s="23">
         <v>134</v>
       </c>
       <c r="B141" s="24" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C141" s="26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E141" s="26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G141" s="23">
         <v>88</v>
@@ -7377,24 +7767,27 @@
         <v>7.142857143</v>
       </c>
       <c r="M141" s="26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O141" s="26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q141" s="26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="S141" s="26" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="142" ht="13.5" spans="1:19">
+        <v>26</v>
+      </c>
+      <c r="U141" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="142" ht="13.5" spans="1:21">
       <c r="A142" s="23">
         <v>135</v>
       </c>
       <c r="B142" s="24" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C142" s="25">
         <v>0.481</v>
@@ -7423,19 +7816,22 @@
       <c r="S142" s="33">
         <v>80.268</v>
       </c>
-    </row>
-    <row r="143" ht="13.5" spans="1:19">
+      <c r="U142" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="143" ht="13.5" spans="1:21">
       <c r="A143" s="23">
         <v>136</v>
       </c>
       <c r="B143" s="24" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C143" s="26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E143" s="26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G143" s="23">
         <v>92</v>
@@ -7447,24 +7843,27 @@
         <v>6.666666667</v>
       </c>
       <c r="M143" s="26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O143" s="26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q143" s="26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="S143" s="26" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="144" ht="13.5" spans="1:19">
+        <v>26</v>
+      </c>
+      <c r="U143" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="144" ht="13.5" spans="1:21">
       <c r="A144" s="23">
         <v>137</v>
       </c>
       <c r="B144" s="24" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C144" s="25">
         <v>0.431</v>
@@ -7493,13 +7892,16 @@
       <c r="S144" s="33">
         <v>78.94</v>
       </c>
-    </row>
-    <row r="145" ht="13.5" spans="1:19">
+      <c r="U144" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="145" ht="13.5" spans="1:21">
       <c r="A145" s="23">
         <v>138</v>
       </c>
       <c r="B145" s="24" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C145" s="25">
         <v>0.494</v>
@@ -7530,13 +7932,16 @@
       <c r="S145" s="33">
         <v>69.876</v>
       </c>
-    </row>
-    <row r="146" ht="13.5" spans="1:19">
+      <c r="U145" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="146" ht="13.5" spans="1:21">
       <c r="A146" s="23">
         <v>139</v>
       </c>
       <c r="B146" s="24" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C146" s="25">
         <v>0.445</v>
@@ -7567,13 +7972,16 @@
       <c r="S146" s="33">
         <v>62.181</v>
       </c>
-    </row>
-    <row r="147" ht="13.5" spans="1:19">
+      <c r="U146" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="147" ht="13.5" spans="1:21">
       <c r="A147" s="23">
         <v>140</v>
       </c>
       <c r="B147" s="24" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C147" s="25">
         <v>0.478</v>
@@ -7602,13 +8010,16 @@
       <c r="S147" s="33">
         <v>78.093</v>
       </c>
-    </row>
-    <row r="148" ht="13.5" spans="1:19">
+      <c r="U147" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="148" ht="13.5" spans="1:21">
       <c r="A148" s="23">
         <v>140</v>
       </c>
       <c r="B148" s="24" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C148" s="25">
         <v>0.378</v>
@@ -7637,19 +8048,22 @@
       <c r="S148" s="33">
         <v>72.24</v>
       </c>
-    </row>
-    <row r="149" ht="13.5" spans="1:19">
+      <c r="U148" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="149" ht="13.5" spans="1:21">
       <c r="A149" s="23">
         <v>140</v>
       </c>
       <c r="B149" s="24" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C149" s="26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E149" s="26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G149" s="23">
         <v>72</v>
@@ -7662,10 +8076,10 @@
       </c>
       <c r="L149" s="27"/>
       <c r="M149" s="26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O149" s="26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q149" s="33">
         <v>59.721</v>
@@ -7673,13 +8087,16 @@
       <c r="S149" s="33">
         <v>78.006</v>
       </c>
-    </row>
-    <row r="150" ht="13.5" spans="1:19">
+      <c r="U149" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="150" ht="13.5" spans="1:21">
       <c r="A150" s="23">
         <v>143</v>
       </c>
       <c r="B150" s="24" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C150" s="25">
         <v>0.452</v>
@@ -7710,13 +8127,16 @@
       <c r="S150" s="33">
         <v>80.772</v>
       </c>
-    </row>
-    <row r="151" ht="13.5" spans="1:19">
+      <c r="U150" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="151" ht="13.5" spans="1:21">
       <c r="A151" s="23">
         <v>144</v>
       </c>
       <c r="B151" s="24" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C151" s="25">
         <v>0.54</v>
@@ -7745,19 +8165,22 @@
       <c r="S151" s="33">
         <v>53.606</v>
       </c>
-    </row>
-    <row r="152" ht="13.5" spans="1:19">
+      <c r="U151" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="152" ht="13.5" spans="1:21">
       <c r="A152" s="23">
         <v>145</v>
       </c>
       <c r="B152" s="24" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C152" s="26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E152" s="26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G152" s="23">
         <v>301</v>
@@ -7769,10 +8192,10 @@
         <v>20.34883721</v>
       </c>
       <c r="M152" s="26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O152" s="26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q152" s="33">
         <v>49.926</v>
@@ -7780,13 +8203,16 @@
       <c r="S152" s="33">
         <v>58.483</v>
       </c>
-    </row>
-    <row r="153" ht="13.5" spans="1:19">
+      <c r="U152" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="153" ht="13.5" spans="1:21">
       <c r="A153" s="23">
         <v>146</v>
       </c>
       <c r="B153" s="24" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C153" s="25">
         <v>0.461</v>
@@ -7815,13 +8241,16 @@
       <c r="S153" s="33">
         <v>85.918</v>
       </c>
-    </row>
-    <row r="154" ht="13.5" spans="1:19">
+      <c r="U153" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="154" ht="13.5" spans="1:21">
       <c r="A154" s="23">
         <v>146</v>
       </c>
       <c r="B154" s="24" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C154" s="25">
         <v>0.532</v>
@@ -7852,13 +8281,16 @@
       <c r="S154" s="33">
         <v>88.933</v>
       </c>
-    </row>
-    <row r="155" ht="13.5" spans="1:19">
+      <c r="U154" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="155" ht="13.5" spans="1:21">
       <c r="A155" s="23">
         <v>148</v>
       </c>
       <c r="B155" s="24" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C155" s="25">
         <v>0.537</v>
@@ -7887,13 +8319,16 @@
       <c r="S155" s="33">
         <v>79.071</v>
       </c>
-    </row>
-    <row r="156" ht="13.5" spans="1:19">
+      <c r="U155" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="156" ht="13.5" spans="1:21">
       <c r="A156" s="23">
         <v>149</v>
       </c>
       <c r="B156" s="24" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C156" s="25">
         <v>0.498</v>
@@ -7922,13 +8357,16 @@
       <c r="S156" s="33">
         <v>69.962</v>
       </c>
-    </row>
-    <row r="157" ht="13.5" spans="1:19">
+      <c r="U156" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="157" ht="13.5" spans="1:21">
       <c r="A157" s="23">
         <v>150</v>
       </c>
       <c r="B157" s="24" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C157" s="25">
         <v>0.477</v>
@@ -7959,13 +8397,16 @@
       <c r="S157" s="33">
         <v>70.767</v>
       </c>
-    </row>
-    <row r="158" ht="13.5" spans="1:19">
+      <c r="U157" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="158" ht="13.5" spans="1:21">
       <c r="A158" s="23">
         <v>151</v>
       </c>
       <c r="B158" s="24" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C158" s="25">
         <v>0.565</v>
@@ -7996,13 +8437,16 @@
       <c r="S158" s="33">
         <v>80.747</v>
       </c>
-    </row>
-    <row r="159" ht="13.5" spans="1:19">
+      <c r="U158" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="159" ht="13.5" spans="1:21">
       <c r="A159" s="23">
         <v>152</v>
       </c>
       <c r="B159" s="24" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C159" s="25">
         <v>0.506</v>
@@ -8033,13 +8477,16 @@
       <c r="S159" s="33">
         <v>75.564</v>
       </c>
-    </row>
-    <row r="160" ht="13.5" spans="1:19">
+      <c r="U159" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="160" ht="13.5" spans="1:21">
       <c r="A160" s="23">
         <v>153</v>
       </c>
       <c r="B160" s="24" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C160" s="25">
         <v>0.564</v>
@@ -8068,13 +8515,16 @@
       <c r="S160" s="33">
         <v>67.605</v>
       </c>
-    </row>
-    <row r="161" ht="13.5" spans="1:19">
+      <c r="U160" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="161" ht="13.5" spans="1:21">
       <c r="A161" s="23">
         <v>154</v>
       </c>
       <c r="B161" s="24" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C161" s="25">
         <v>0.54</v>
@@ -8105,19 +8555,22 @@
       <c r="S161" s="33">
         <v>77.847</v>
       </c>
-    </row>
-    <row r="162" ht="13.5" spans="1:19">
+      <c r="U161" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="162" ht="13.5" spans="1:21">
       <c r="A162" s="23">
         <v>155</v>
       </c>
       <c r="B162" s="24" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C162" s="26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E162" s="26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G162" s="23">
         <v>104</v>
@@ -8129,10 +8582,10 @@
         <v>8</v>
       </c>
       <c r="M162" s="26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O162" s="26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q162" s="33">
         <v>83.057</v>
@@ -8140,19 +8593,22 @@
       <c r="S162" s="33">
         <v>87.398</v>
       </c>
-    </row>
-    <row r="163" ht="13.5" spans="1:19">
+      <c r="U162" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="163" ht="13.5" spans="1:21">
       <c r="A163" s="23">
         <v>156</v>
       </c>
       <c r="B163" s="24" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C163" s="26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E163" s="26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G163" s="23">
         <v>273</v>
@@ -8164,10 +8620,10 @@
         <v>16.66666667</v>
       </c>
       <c r="M163" s="26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O163" s="26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q163" s="33">
         <v>32.119</v>
@@ -8175,13 +8631,16 @@
       <c r="S163" s="33">
         <v>54.534</v>
       </c>
-    </row>
-    <row r="164" ht="13.5" spans="1:19">
+      <c r="U163" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="164" ht="13.5" spans="1:21">
       <c r="A164" s="23">
         <v>156</v>
       </c>
       <c r="B164" s="24" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="C164" s="25">
         <v>0.725</v>
@@ -8211,13 +8670,16 @@
       <c r="S164" s="33">
         <v>48.14</v>
       </c>
-    </row>
-    <row r="165" ht="13.5" spans="1:19">
+      <c r="U164" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="165" ht="13.5" spans="1:21">
       <c r="A165" s="23">
         <v>158</v>
       </c>
       <c r="B165" s="24" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C165" s="25">
         <v>0.632</v>
@@ -8248,13 +8710,16 @@
       <c r="S165" s="33">
         <v>62.19</v>
       </c>
-    </row>
-    <row r="166" ht="13.5" spans="1:19">
+      <c r="U165" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="166" ht="13.5" spans="1:21">
       <c r="A166" s="23">
         <v>159</v>
       </c>
       <c r="B166" s="24" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C166" s="25">
         <v>0.613</v>
@@ -8285,34 +8750,32 @@
       <c r="S166" s="33">
         <v>64.893</v>
       </c>
-    </row>
-    <row r="167" ht="13.5" spans="1:19">
+      <c r="U166" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="167" ht="13.5" spans="1:21">
       <c r="A167" s="23">
         <v>160</v>
       </c>
       <c r="B167" s="24" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C167" s="25">
         <v>0.56</v>
       </c>
-      <c r="D167" s="1"/>
       <c r="E167" s="23">
         <v>146</v>
       </c>
-      <c r="F167" s="1"/>
       <c r="G167" s="23">
         <v>524</v>
       </c>
-      <c r="H167" s="1"/>
       <c r="I167" s="33">
         <v>123.652</v>
       </c>
-      <c r="J167" s="1"/>
       <c r="K167" s="33">
         <v>36.8556701</v>
       </c>
-      <c r="L167" s="1"/>
       <c r="M167" s="33">
         <v>13.00208063</v>
       </c>
@@ -8324,81 +8787,73 @@
       <c r="Q167" s="33">
         <v>79.528</v>
       </c>
-      <c r="R167" s="1"/>
       <c r="S167" s="33">
         <v>87.098</v>
       </c>
-    </row>
-    <row r="168" ht="13.5" spans="1:19">
+      <c r="U167" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="168" ht="13.5" spans="1:21">
       <c r="A168" s="23">
         <v>161</v>
       </c>
       <c r="B168" s="24" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C168" s="25">
         <v>0.534</v>
       </c>
-      <c r="D168" s="1"/>
       <c r="E168" s="23">
         <v>135</v>
       </c>
-      <c r="F168" s="1"/>
       <c r="G168" s="23">
         <v>140</v>
       </c>
-      <c r="H168" s="1"/>
       <c r="I168" s="33">
         <v>42.269</v>
       </c>
-      <c r="J168" s="1"/>
       <c r="K168" s="33">
         <v>19.90950226</v>
       </c>
-      <c r="L168" s="1"/>
       <c r="M168" s="33">
         <v>22.06782913</v>
       </c>
-      <c r="N168" s="1"/>
       <c r="O168" s="33">
         <v>28.67371941</v>
       </c>
-      <c r="P168" s="1"/>
       <c r="Q168" s="33">
         <v>20.727</v>
       </c>
-      <c r="R168" s="1"/>
       <c r="S168" s="33">
         <v>78.079</v>
       </c>
-    </row>
-    <row r="169" ht="13.5" spans="1:19">
+      <c r="U168" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="169" ht="13.5" spans="1:21">
       <c r="A169" s="23">
         <v>162</v>
       </c>
       <c r="B169" s="24" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="C169" s="25">
         <v>0.58</v>
       </c>
-      <c r="D169" s="1"/>
       <c r="E169" s="23">
         <v>149</v>
       </c>
-      <c r="F169" s="1"/>
       <c r="G169" s="23">
         <v>396</v>
       </c>
-      <c r="H169" s="1"/>
       <c r="I169" s="33">
         <v>77.88</v>
       </c>
-      <c r="J169" s="1"/>
       <c r="K169" s="33">
         <v>18.68131868</v>
       </c>
-      <c r="L169" s="1"/>
       <c r="M169" s="33">
         <v>13.93464167</v>
       </c>
@@ -8410,17 +8865,19 @@
       <c r="Q169" s="33">
         <v>55.488</v>
       </c>
-      <c r="R169" s="1"/>
       <c r="S169" s="33">
         <v>59.369</v>
       </c>
-    </row>
-    <row r="170" s="8" customFormat="1" ht="13.5" spans="1:20">
+      <c r="U169" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="170" s="8" customFormat="1" ht="13.5" spans="1:21">
       <c r="A170" s="23">
         <v>163</v>
       </c>
       <c r="B170" s="24" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="C170" s="25">
         <v>0.635</v>
@@ -8458,13 +8915,16 @@
         <v>68.93</v>
       </c>
       <c r="T170" s="1"/>
-    </row>
-    <row r="171" ht="13.5" spans="1:19">
+      <c r="U170" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="171" ht="13.5" spans="1:21">
       <c r="A171" s="23">
         <v>163</v>
       </c>
       <c r="B171" s="24" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="C171" s="25">
         <v>0.68</v>
@@ -8495,13 +8955,16 @@
       <c r="S171" s="33">
         <v>59.591</v>
       </c>
-    </row>
-    <row r="172" ht="13.5" spans="1:19">
+      <c r="U171" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="172" ht="13.5" spans="1:21">
       <c r="A172" s="23">
         <v>165</v>
       </c>
       <c r="B172" s="24" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="C172" s="25">
         <v>0.388</v>
@@ -8532,13 +8995,16 @@
       <c r="S172" s="33">
         <v>82.226</v>
       </c>
-    </row>
-    <row r="173" ht="13.5" spans="1:19">
+      <c r="U172" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="173" ht="13.5" spans="1:21">
       <c r="A173" s="23">
         <v>166</v>
       </c>
       <c r="B173" s="24" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="C173" s="25">
         <v>0.602</v>
@@ -8569,13 +9035,16 @@
       <c r="S173" s="33">
         <v>72.599</v>
       </c>
-    </row>
-    <row r="174" ht="13.5" spans="1:19">
+      <c r="U173" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="174" ht="13.5" spans="1:21">
       <c r="A174" s="23">
         <v>166</v>
       </c>
       <c r="B174" s="24" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="C174" s="25">
         <v>0.53</v>
@@ -8604,13 +9073,16 @@
       <c r="S174" s="33">
         <v>71.306</v>
       </c>
-    </row>
-    <row r="175" ht="13.5" spans="1:19">
+      <c r="U174" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="175" ht="13.5" spans="1:21">
       <c r="A175" s="23">
         <v>168</v>
       </c>
       <c r="B175" s="24" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="C175" s="25">
         <v>0.557</v>
@@ -8641,13 +9113,16 @@
       <c r="S175" s="33">
         <v>71.343</v>
       </c>
-    </row>
-    <row r="176" ht="13.5" spans="1:19">
+      <c r="U175" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="176" ht="13.5" spans="1:21">
       <c r="A176" s="23">
         <v>169</v>
       </c>
       <c r="B176" s="24" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="C176" s="25">
         <v>0.554</v>
@@ -8678,13 +9153,16 @@
       <c r="S176" s="33">
         <v>79.953</v>
       </c>
-    </row>
-    <row r="177" ht="13.5" spans="1:19">
+      <c r="U176" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="177" ht="13.5" spans="1:21">
       <c r="A177" s="23">
         <v>170</v>
       </c>
       <c r="B177" s="24" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="C177" s="25">
         <v>0.53</v>
@@ -8715,19 +9193,22 @@
       <c r="S177" s="33">
         <v>56.729</v>
       </c>
-    </row>
-    <row r="178" ht="13.5" spans="1:19">
+      <c r="U177" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="178" ht="13.5" spans="1:21">
       <c r="A178" s="23">
         <v>171</v>
       </c>
       <c r="B178" s="24" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="C178" s="26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E178" s="26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G178" s="23">
         <v>248</v>
@@ -8739,10 +9220,10 @@
         <v>26.15384615</v>
       </c>
       <c r="M178" s="26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O178" s="26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q178" s="33">
         <v>17.218</v>
@@ -8750,13 +9231,16 @@
       <c r="S178" s="33">
         <v>44.147</v>
       </c>
-    </row>
-    <row r="179" ht="13.5" spans="1:19">
+      <c r="U178" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="179" ht="13.5" spans="1:21">
       <c r="A179" s="23">
         <v>172</v>
       </c>
       <c r="B179" s="24" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="C179" s="25">
         <v>0.553</v>
@@ -8786,13 +9270,16 @@
       <c r="S179" s="33">
         <v>67.819</v>
       </c>
-    </row>
-    <row r="180" ht="13.5" spans="1:19">
+      <c r="U179" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="180" ht="13.5" spans="1:21">
       <c r="A180" s="23">
         <v>173</v>
       </c>
       <c r="B180" s="24" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="C180" s="25">
         <v>0.556</v>
@@ -8823,13 +9310,16 @@
       <c r="S180" s="33">
         <v>87.595</v>
       </c>
-    </row>
-    <row r="181" ht="13.5" spans="1:19">
+      <c r="U180" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="181" ht="13.5" spans="1:21">
       <c r="A181" s="23">
         <v>174</v>
       </c>
       <c r="B181" s="24" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="C181" s="25">
         <v>0.611</v>
@@ -8858,13 +9348,16 @@
       <c r="S181" s="33">
         <v>66.259</v>
       </c>
-    </row>
-    <row r="182" ht="13.5" spans="1:19">
+      <c r="U181" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="182" ht="13.5" spans="1:21">
       <c r="A182" s="23">
         <v>175</v>
       </c>
       <c r="B182" s="24" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="C182" s="25">
         <v>0.52</v>
@@ -8893,19 +9386,22 @@
       <c r="S182" s="33">
         <v>84.683</v>
       </c>
-    </row>
-    <row r="183" ht="13.5" spans="1:19">
+      <c r="U182" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="183" ht="13.5" spans="1:21">
       <c r="A183" s="23">
         <v>176</v>
       </c>
       <c r="B183" s="24" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="C183" s="26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E183" s="26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G183" s="23">
         <v>480</v>
@@ -8918,10 +9414,10 @@
       </c>
       <c r="L183" s="27"/>
       <c r="M183" s="26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O183" s="26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q183" s="33">
         <v>70.183</v>
@@ -8929,13 +9425,16 @@
       <c r="S183" s="33">
         <v>83.622</v>
       </c>
-    </row>
-    <row r="184" ht="13.5" spans="1:19">
+      <c r="U183" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="184" ht="13.5" spans="1:21">
       <c r="A184" s="23">
         <v>177</v>
       </c>
       <c r="B184" s="24" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="C184" s="25">
         <v>0.627</v>
@@ -8964,13 +9463,16 @@
       <c r="S184" s="33">
         <v>78.373</v>
       </c>
-    </row>
-    <row r="185" ht="13.5" spans="1:19">
+      <c r="U184" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="185" ht="13.5" spans="1:21">
       <c r="A185" s="23">
         <v>178</v>
       </c>
       <c r="B185" s="24" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="C185" s="25">
         <v>0.648</v>
@@ -8999,13 +9501,16 @@
       <c r="S185" s="33">
         <v>79.717</v>
       </c>
-    </row>
-    <row r="186" ht="13.5" spans="1:19">
+      <c r="U185" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="186" ht="13.5" spans="1:21">
       <c r="A186" s="23">
         <v>179</v>
       </c>
       <c r="B186" s="24" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="C186" s="25">
         <v>0.601</v>
@@ -9036,13 +9541,16 @@
       <c r="S186" s="33">
         <v>69.065</v>
       </c>
-    </row>
-    <row r="187" ht="13.5" spans="1:19">
+      <c r="U186" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="187" ht="13.5" spans="1:21">
       <c r="A187" s="23">
         <v>180</v>
       </c>
       <c r="B187" s="24" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="C187" s="25">
         <v>0.678</v>
@@ -9071,13 +9579,16 @@
       <c r="S187" s="33">
         <v>66.515</v>
       </c>
-    </row>
-    <row r="188" ht="13.5" spans="1:19">
+      <c r="U187" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="188" ht="13.5" spans="1:21">
       <c r="A188" s="23">
         <v>181</v>
       </c>
       <c r="B188" s="24" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="C188" s="25">
         <v>0.633</v>
@@ -9108,13 +9619,16 @@
       <c r="S188" s="33">
         <v>55.925</v>
       </c>
-    </row>
-    <row r="189" ht="13.5" spans="1:19">
+      <c r="U188" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="189" ht="13.5" spans="1:21">
       <c r="A189" s="23">
         <v>182</v>
       </c>
       <c r="B189" s="24" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="C189" s="25">
         <v>0.621</v>
@@ -9146,13 +9660,16 @@
       <c r="S189" s="33">
         <v>62.188</v>
       </c>
-    </row>
-    <row r="190" ht="13.5" spans="1:19">
+      <c r="U189" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="190" ht="13.5" spans="1:21">
       <c r="A190" s="23">
         <v>183</v>
       </c>
       <c r="B190" s="24" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="C190" s="25">
         <v>0.82</v>
@@ -9181,13 +9698,16 @@
       <c r="S190" s="33">
         <v>67.637</v>
       </c>
-    </row>
-    <row r="191" ht="13.5" spans="1:19">
+      <c r="U190" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="191" ht="13.5" spans="1:21">
       <c r="A191" s="23">
         <v>184</v>
       </c>
       <c r="B191" s="24" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="C191" s="25">
         <v>0.621</v>
@@ -9218,13 +9738,16 @@
       <c r="S191" s="33">
         <v>72.725</v>
       </c>
-    </row>
-    <row r="192" ht="13.5" spans="1:19">
+      <c r="U191" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="192" ht="13.5" spans="1:21">
       <c r="A192" s="23">
         <v>185</v>
       </c>
       <c r="B192" s="24" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="C192" s="25">
         <v>0.537</v>
@@ -9255,13 +9778,16 @@
       <c r="S192" s="33">
         <v>78.931</v>
       </c>
-    </row>
-    <row r="193" ht="13.5" spans="1:19">
+      <c r="U192" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="193" ht="13.5" spans="1:21">
       <c r="A193" s="23">
         <v>186</v>
       </c>
       <c r="B193" s="24" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="C193" s="25">
         <v>0.613</v>
@@ -9290,13 +9816,16 @@
       <c r="S193" s="33">
         <v>79.673</v>
       </c>
-    </row>
-    <row r="194" ht="13.5" spans="1:19">
+      <c r="U193" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="194" ht="13.5" spans="1:21">
       <c r="A194" s="23">
         <v>187</v>
       </c>
       <c r="B194" s="24" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="C194" s="25">
         <v>0.505</v>
@@ -9327,13 +9856,16 @@
       <c r="S194" s="33">
         <v>77.379</v>
       </c>
-    </row>
-    <row r="195" ht="13.5" spans="1:19">
+      <c r="U194" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="195" ht="13.5" spans="1:21">
       <c r="A195" s="23">
         <v>188</v>
       </c>
       <c r="B195" s="24" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="C195" s="25">
         <v>0.672</v>
@@ -9362,13 +9894,16 @@
       <c r="S195" s="33">
         <v>79.486</v>
       </c>
-    </row>
-    <row r="196" ht="13.5" spans="1:19">
+      <c r="U195" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="196" ht="13.5" spans="1:21">
       <c r="A196" s="23">
         <v>189</v>
       </c>
       <c r="B196" s="24" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="C196" s="25">
         <v>0.611</v>
@@ -9399,13 +9934,16 @@
       <c r="S196" s="33">
         <v>84.267</v>
       </c>
-    </row>
-    <row r="197" ht="13.5" spans="1:19">
+      <c r="U196" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="197" ht="13.5" spans="1:21">
       <c r="A197" s="23">
         <v>190</v>
       </c>
       <c r="B197" s="24" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="C197" s="25">
         <v>0.652</v>
@@ -9436,13 +9974,16 @@
       <c r="S197" s="33">
         <v>69.927</v>
       </c>
-    </row>
-    <row r="198" ht="13.5" spans="1:19">
+      <c r="U197" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="198" ht="13.5" spans="1:21">
       <c r="A198" s="23">
         <v>191</v>
       </c>
       <c r="B198" s="24" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="C198" s="25">
         <v>0.587</v>
@@ -9471,8 +10012,11 @@
       <c r="S198" s="33">
         <v>73.574</v>
       </c>
-    </row>
-    <row r="203" s="8" customFormat="1" spans="1:20">
+      <c r="U198" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="203" s="8" customFormat="1" ht="13.5" spans="1:20">
       <c r="A203" s="1"/>
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
@@ -9494,7 +10038,7 @@
       <c r="S203" s="1"/>
       <c r="T203" s="1"/>
     </row>
-    <row r="254" s="7" customFormat="1" spans="1:20">
+    <row r="254" s="7" customFormat="1" ht="13.5" spans="1:20">
       <c r="A254" s="1"/>
       <c r="B254" s="1"/>
       <c r="C254" s="1"/>
@@ -9648,7 +10192,7 @@
       <c r="S260" s="1"/>
       <c r="T260" s="1"/>
     </row>
-    <row r="261" s="8" customFormat="1" spans="1:20">
+    <row r="261" s="8" customFormat="1" ht="13.5" spans="1:20">
       <c r="A261" s="1"/>
       <c r="B261" s="1"/>
       <c r="C261" s="1"/>
@@ -9670,7 +10214,7 @@
       <c r="S261" s="1"/>
       <c r="T261" s="1"/>
     </row>
-    <row r="262" s="8" customFormat="1" spans="1:20">
+    <row r="262" s="8" customFormat="1" ht="13.5" spans="1:20">
       <c r="A262" s="1"/>
       <c r="B262" s="1"/>
       <c r="C262" s="1"/>
@@ -9731,17 +10275,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="2" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
     <row r="2" ht="19.95" customHeight="1" spans="1:1">
       <c r="A2" s="3" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="3" ht="19.95" customHeight="1" spans="1:1">
       <c r="A3" s="4" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
     </row>
     <row r="4" ht="19.95" customHeight="1" spans="1:1">
@@ -9749,112 +10293,112 @@
     </row>
     <row r="5" ht="19.95" customHeight="1" spans="1:1">
       <c r="A5" s="5" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
     </row>
     <row r="6" ht="28.95" customHeight="1" spans="1:1">
       <c r="A6" s="6" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
     </row>
     <row r="7" ht="28.95" customHeight="1" spans="1:1">
       <c r="A7" s="5" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
     </row>
     <row r="8" ht="19.95" customHeight="1" spans="1:1">
       <c r="A8" s="5" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
     </row>
     <row r="9" ht="19.95" customHeight="1" spans="1:1">
       <c r="A9" s="5" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="10" ht="19.95" customHeight="1" spans="1:1">
       <c r="A10" s="5" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
     </row>
     <row r="11" ht="19.95" customHeight="1" spans="1:1">
       <c r="A11" s="5" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
     </row>
     <row r="12" ht="19.95" customHeight="1" spans="1:1">
       <c r="A12" s="5" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
     </row>
     <row r="13" ht="19.95" customHeight="1" spans="1:1">
       <c r="A13" s="5" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
     </row>
     <row r="14" ht="19.95" customHeight="1" spans="1:1">
       <c r="A14" s="5" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="15" ht="19.95" customHeight="1" spans="1:1">
       <c r="A15" s="5" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
     </row>
     <row r="16" ht="19.95" customHeight="1" spans="1:1">
       <c r="A16" s="5" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
     </row>
     <row r="17" ht="19.95" customHeight="1" spans="1:1">
       <c r="A17" s="5" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
     </row>
     <row r="18" ht="28.95" customHeight="1" spans="1:1">
       <c r="A18" s="5" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
     </row>
     <row r="19" ht="19.95" customHeight="1" spans="1:1">
       <c r="A19" s="5" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="20" ht="19.95" customHeight="1" spans="1:1">
       <c r="A20" s="5" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="21" ht="19.95" customHeight="1" spans="1:1">
       <c r="A21" s="5" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
     </row>
     <row r="22" ht="19.95" customHeight="1" spans="1:1">
       <c r="A22" s="5" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="23" ht="40.95" customHeight="1" spans="1:1">
       <c r="A23" s="5" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
     </row>
     <row r="24" ht="19.95" customHeight="1" spans="1:1">
       <c r="A24" s="5" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
     </row>
     <row r="25" ht="19.95" customHeight="1" spans="1:1">
       <c r="A25" s="5" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
     </row>
     <row r="26" ht="19.95" customHeight="1" spans="1:1">
       <c r="A26" s="5" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
   </sheetData>
